--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GI05MOAS-GL477\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="12720" windowHeight="12408" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Ref Des</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>N00531</t>
+  </si>
+  <si>
+    <t>OL000117</t>
   </si>
 </sst>
 </file>
@@ -713,25 +716,25 @@
       <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875"/>
-    <col min="3" max="3" width="39.44140625"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625"/>
-    <col min="8" max="8" width="18.6640625"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875"/>
-    <col min="11" max="11" width="12.6640625"/>
-    <col min="12" max="12" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="12.7109375"/>
+    <col min="12" max="12" width="34.85546875" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="1027" width="8.6640625"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
@@ -769,7 +772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -811,11 +814,11 @@
         <v>-39.473833333333332</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -830,23 +833,23 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="1021" width="8.6640625"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="1021" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -872,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -901,7 +904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -930,7 +933,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -959,7 +962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -988,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -997,7 +1000,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1030,7 +1033,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1054,7 +1057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1063,7 +1066,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1076,7 +1079,9 @@
       <c r="D11" s="8">
         <v>1</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="8">
         <v>477</v>
       </c>
@@ -1085,7 +1090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -279,13 +279,13 @@
     <border>
       <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,7 +501,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -712,29 +712,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875"/>
-    <col min="3" max="3" width="39.42578125"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.42578125"/>
-    <col min="8" max="8" width="18.7109375"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875"/>
-    <col min="11" max="11" width="12.7109375"/>
-    <col min="12" max="12" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="1027" width="8.7109375"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42">
       <c r="A1" s="13" t="s">
         <v>30</v>
       </c>
@@ -772,7 +767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -791,7 +786,9 @@
       <c r="F2" s="7">
         <v>0.95833333333333337</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>42111</v>
+      </c>
       <c r="H2" s="9" t="s">
         <v>21</v>
       </c>
@@ -814,17 +811,22 @@
         <v>-39.473833333333332</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -832,24 +834,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="1021" width="8.7109375"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="12" customFormat="1" ht="28">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -875,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -904,7 +905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -933,7 +934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -962,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -991,7 +992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -1000,7 +1001,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1033,7 +1034,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1066,7 +1067,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1101,6 +1102,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="377"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -712,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -834,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -957,7 +957,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>17</v>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-GL477_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -796,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>23</v>
@@ -834,7 +834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
